--- a/Intransitive & Transitive Verbs.xlsx
+++ b/Intransitive & Transitive Verbs.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\JLPT-Materials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3502F89B-54D4-4E43-AE16-029444547D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -997,9 +1006,6 @@
     <t xml:space="preserve">で出る </t>
   </si>
   <si>
-    <t xml:space="preserve">だ出し </t>
-  </si>
-  <si>
     <t>すぼ窄む</t>
   </si>
   <si>
@@ -1141,7 +1147,7 @@
     <t xml:space="preserve">わ沸かす </t>
   </si>
   <si>
-    <t xml:space="preserve">まわ回る　</t>
+    <t>まわ回る　</t>
   </si>
   <si>
     <t>まわ回す</t>
@@ -1502,45 +1508,55 @@
   </si>
   <si>
     <t>わ分ける</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だ出す </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Sans-serif"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
@@ -1550,7 +1566,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1638,19 +1654,28 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1660,73 +1685,62 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1916,2432 +1930,2447 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="2" width="16.86"/>
-    <col customWidth="1" min="3" max="3" width="3.43"/>
-    <col customWidth="1" min="4" max="4" width="19.29"/>
-    <col customWidth="1" min="5" max="5" width="20.43"/>
-    <col customWidth="1" min="6" max="6" width="3.43"/>
-    <col customWidth="1" min="7" max="7" width="18.0"/>
-    <col customWidth="1" min="8" max="8" width="16.71"/>
-    <col customWidth="1" min="9" max="9" width="3.43"/>
-    <col customWidth="1" min="10" max="10" width="17.57"/>
-    <col customWidth="1" min="11" max="11" width="17.0"/>
-    <col customWidth="1" min="12" max="12" width="3.43"/>
-    <col customWidth="1" min="13" max="13" width="17.86"/>
-    <col customWidth="1" min="14" max="14" width="17.43"/>
-    <col customWidth="1" min="15" max="15" width="4.0"/>
-    <col customWidth="1" min="16" max="16" width="16.0"/>
-    <col customWidth="1" min="17" max="17" width="16.29"/>
-    <col customWidth="1" min="18" max="18" width="3.86"/>
-    <col customWidth="1" min="19" max="19" width="19.86"/>
-    <col customWidth="1" min="20" max="20" width="18.86"/>
-    <col customWidth="1" min="21" max="21" width="4.43"/>
-    <col customWidth="1" min="22" max="22" width="20.57"/>
-    <col customWidth="1" min="23" max="23" width="16.57"/>
-    <col customWidth="1" min="24" max="24" width="4.57"/>
-    <col customWidth="1" min="25" max="25" width="20.57"/>
-    <col customWidth="1" min="26" max="26" width="16.86"/>
-    <col customWidth="1" min="27" max="27" width="3.71"/>
-    <col customWidth="1" min="28" max="29" width="17.0"/>
-    <col customWidth="1" min="30" max="30" width="4.14"/>
-    <col customWidth="1" min="31" max="31" width="17.0"/>
-    <col customWidth="1" min="32" max="32" width="17.14"/>
-    <col customWidth="1" min="33" max="33" width="4.0"/>
-    <col customWidth="1" min="34" max="34" width="15.57"/>
-    <col customWidth="1" min="35" max="35" width="16.86"/>
-    <col customWidth="1" min="36" max="36" width="4.14"/>
-    <col customWidth="1" min="37" max="37" width="17.57"/>
-    <col customWidth="1" min="38" max="38" width="17.71"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="20" max="20" width="18.88671875" customWidth="1"/>
+    <col min="21" max="21" width="4.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.5546875" customWidth="1"/>
+    <col min="23" max="23" width="16.5546875" customWidth="1"/>
+    <col min="24" max="24" width="4.5546875" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" customWidth="1"/>
+    <col min="27" max="27" width="3.6640625" customWidth="1"/>
+    <col min="28" max="29" width="17" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" customWidth="1"/>
+    <col min="31" max="31" width="17" customWidth="1"/>
+    <col min="32" max="32" width="17.109375" customWidth="1"/>
+    <col min="33" max="33" width="4" customWidth="1"/>
+    <col min="34" max="34" width="15.5546875" customWidth="1"/>
+    <col min="35" max="35" width="16.88671875" customWidth="1"/>
+    <col min="36" max="36" width="4.109375" customWidth="1"/>
+    <col min="37" max="37" width="17.5546875" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="8"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="9"/>
-      <c r="S1" s="10"/>
-      <c r="V1" s="11"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="2"/>
+    <row r="1" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="15"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="15"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="15"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="13"/>
       <c r="AB1" s="14"/>
-      <c r="AD1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="5"/>
       <c r="AE1" s="16"/>
+      <c r="AF1" s="15"/>
       <c r="AH1" s="17"/>
-      <c r="AJ1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="5"/>
       <c r="AK1" s="18"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="AL1" s="15"/>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="3" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="15" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="15" t="s">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="15" t="s">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AF3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="15" t="s">
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AI3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15" t="s">
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AL3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="15" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15" t="s">
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="3" t="s">
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="15" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="15" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15" t="s">
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AF5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AH5" s="23" t="s">
+      <c r="AH5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AI5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="15" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="15" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z6" s="24" t="s">
+      <c r="Z6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AC6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AE6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AF6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AK6" s="15" t="s">
+      <c r="AK6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AL6" s="24" t="s">
+      <c r="AL6" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="24" t="s">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Z7" s="24" t="s">
+      <c r="Z7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AB7" s="15" t="s">
+      <c r="AB7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AC7" s="15" t="s">
+      <c r="AC7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="AK7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AL7" s="15" t="s">
+      <c r="AL7" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="15" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="15" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="Z8" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AE8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AF8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AK8" s="21" t="s">
+      <c r="AK8" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AL8" s="22" t="s">
+      <c r="AL8" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="15" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="15" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="15" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="Z9" s="15" t="s">
+      <c r="Z9" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AB9" s="15" t="s">
+      <c r="AB9" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AC9" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AE9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AF9" s="15" t="s">
+      <c r="AF9" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AK9" s="15" t="s">
+      <c r="AK9" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AL9" s="15" t="s">
+      <c r="AL9" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="15" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="15" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="21" t="s">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="Z10" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AC10" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AK10" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AL10" s="15" t="s">
+      <c r="AL10" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="15" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="15" t="s">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="Z11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AB11" s="15" t="s">
+      <c r="AB11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AC11" s="15" t="s">
+      <c r="AC11" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AK11" s="15" t="s">
+      <c r="AK11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AL11" s="15" t="s">
+      <c r="AL11" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="15" t="s">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Z12" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AB12" s="15" t="s">
+      <c r="AB12" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AC12" s="15" t="s">
+      <c r="AC12" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="15" t="s">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="Z13" s="15" t="s">
+      <c r="Z13" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AB13" s="15" t="s">
+      <c r="AB13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AC13" s="15" t="s">
+      <c r="AC13" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="15" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="Z14" s="15" t="s">
+      <c r="Z14" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="15" t="s">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="Z15" s="15" t="s">
+      <c r="Z15" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AB15" s="15" t="s">
+      <c r="AB15" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AC15" s="15" t="s">
+      <c r="AC15" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="5" t="s">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="Z16" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AB16" s="15" t="s">
+      <c r="AB16" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AC16" s="15" t="s">
+      <c r="AC16" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="5" t="s">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="Z17" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AB17" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AC17" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="15" t="s">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="Z18" s="15" t="s">
+      <c r="Z18" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="M19" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="N19" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="P19" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q19" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="P19" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q19" s="15" t="s">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="15" t="s">
+      <c r="Z19" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="Z19" s="15" t="s">
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="D20" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="G20" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="H20" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="J20" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="N20" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="P20" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="Q20" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="15" t="s">
+      <c r="Z20" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Z20" s="15" t="s">
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="G21" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="M21" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="N21" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="P21" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="Q21" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="15" t="s">
+      <c r="Z21" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="Z21" s="15" t="s">
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="B22" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="D22" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="H22" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="J22" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="M22" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="N22" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="P22" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="Q22" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="5" t="s">
+      <c r="Z22" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="Z22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D23" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="G23" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="J23" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="M23" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="N23" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="3" t="s">
+      <c r="Z23" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Z23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D24" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="G24" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="J24" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="N24" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="5" t="s">
+      <c r="Z24" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="Z24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D25" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="H25" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="J25" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="K25" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="M25" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D26" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="X25" s="12"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="G26" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="H26" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="J26" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="M26" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="N26" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D27" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="X26" s="12"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="G27" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="H27" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="J27" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="M27" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D28" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="X27" s="12"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="G28" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="H28" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="J28" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="M28" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D29" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="X28" s="12"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="G29" s="5"/>
+      <c r="J29" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="J29" s="15" t="s">
+      <c r="K29" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D30" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="X29" s="12"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="J30" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D31" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="X30" s="12"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="J31" s="24" t="s">
+      <c r="K31" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1">
+      <c r="D32" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="X31" s="12"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="D32" s="24" t="s">
+      <c r="E32" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="J32" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D33" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="X32" s="12"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="D33" s="15" t="s">
+      <c r="E33" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="J33" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="K33" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D34" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="X33" s="12"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="J34" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="K34" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D35" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="X34" s="12"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="J35" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="K35" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D36" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="X35" s="12"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="J36" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="K36" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D37" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="X36" s="12"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="D37" s="15" t="s">
+      <c r="E37" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="J37" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="K37" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D38" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="X37" s="12"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="J38" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="K38" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D39" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="X38" s="12"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="J39" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="K39" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D40" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="X39" s="12"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="15" t="s">
+      <c r="E40" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D41" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="X40" s="12"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D42" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="X41" s="12"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D43" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="X42" s="12"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="15" t="s">
+      <c r="E43" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D44" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="X43" s="12"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D45" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="X44" s="12"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="15" t="s">
+      <c r="E45" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D46" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="X45" s="12"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="15" t="s">
+      <c r="E46" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D47" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="X46" s="12"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="D47" s="15" t="s">
+      <c r="E47" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D48" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="X47" s="12"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="D48" s="15" t="s">
+      <c r="E48" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D49" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="X48" s="12"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D50" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="X49" s="12"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="X50" s="4"/>
+    </row>
+    <row r="51" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D51" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="X50" s="12"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="15" t="s">
+      <c r="E51" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="4:24" ht="15.75" customHeight="1">
+      <c r="D52" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="X51" s="12"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="15" t="s">
+      <c r="E52" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="X52" s="12"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="X53" s="12"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="X54" s="12"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="X55" s="12"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="X56" s="12"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="X57" s="12"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="X58" s="12"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="X59" s="12"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="X60" s="12"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="X61" s="12"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="X62" s="12"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="X63" s="12"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="X64" s="12"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="X65" s="12"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="X66" s="12"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="X67" s="12"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="X68" s="12"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="X69" s="12"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="X70" s="12"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="X71" s="12"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="X72" s="12"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="X73" s="12"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="X74" s="12"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="X75" s="12"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="X76" s="12"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="X77" s="12"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="X78" s="12"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="X79" s="12"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="X80" s="12"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="X81" s="12"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="X82" s="12"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="X83" s="12"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="X84" s="12"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="X85" s="12"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="X86" s="12"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="X87" s="12"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="X88" s="12"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="X89" s="12"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="X90" s="12"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="X91" s="12"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="X92" s="12"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="X93" s="12"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="X94" s="12"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="X95" s="12"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="X96" s="12"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="X97" s="12"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="X98" s="12"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="X99" s="12"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="X100" s="12"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="X101" s="12"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="X102" s="12"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="X103" s="12"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="X104" s="12"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="X105" s="12"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="X106" s="12"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="X107" s="12"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="X108" s="12"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="X109" s="12"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="X110" s="12"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="X111" s="12"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="X112" s="12"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="X113" s="12"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="X114" s="12"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="X115" s="12"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="X116" s="12"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="X117" s="12"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="X118" s="12"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="X119" s="12"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="X120" s="12"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="X121" s="12"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="X122" s="12"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="X123" s="12"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="X124" s="12"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="X125" s="12"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="X126" s="12"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="X127" s="12"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="X128" s="12"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="X129" s="12"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="X130" s="12"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="X131" s="12"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="X132" s="12"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="X133" s="12"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="X134" s="12"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="X135" s="12"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="X136" s="12"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="X137" s="12"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="X138" s="12"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="X139" s="12"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="X140" s="12"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="X141" s="12"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="X142" s="12"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="X143" s="12"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="X144" s="12"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="X145" s="12"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="X146" s="12"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="X147" s="12"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="X148" s="12"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="X149" s="12"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="X150" s="12"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="X151" s="12"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="X152" s="12"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="X153" s="12"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="X154" s="12"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="X155" s="12"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="X156" s="12"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="X157" s="12"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="X158" s="12"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="X159" s="12"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="X160" s="12"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="X161" s="12"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="X162" s="12"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="X163" s="12"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="X164" s="12"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="X165" s="12"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="X166" s="12"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="X167" s="12"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="X168" s="12"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="X169" s="12"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="X170" s="12"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="X171" s="12"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="X172" s="12"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="X173" s="12"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="X174" s="12"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="X175" s="12"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="X176" s="12"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="X177" s="12"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="X178" s="12"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="X179" s="12"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="X180" s="12"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="X181" s="12"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="X182" s="12"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="X183" s="12"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="X184" s="12"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="X185" s="12"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="X186" s="12"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="X187" s="12"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="X188" s="12"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="X189" s="12"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="X190" s="12"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="X191" s="12"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="X192" s="12"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="X193" s="12"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="X194" s="12"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="X195" s="12"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="X196" s="12"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="X197" s="12"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="X198" s="12"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="X199" s="12"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="X200" s="12"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="X201" s="12"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="X202" s="12"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="X203" s="12"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="X204" s="12"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="X205" s="12"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="X206" s="12"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="X207" s="12"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="X208" s="12"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="X209" s="12"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="X210" s="12"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="X211" s="12"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="X212" s="12"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="X213" s="12"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="X214" s="12"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="X215" s="12"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="X216" s="12"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="X217" s="12"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="X218" s="12"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="X219" s="12"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="X220" s="12"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="X221" s="12"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="X222" s="12"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="X223" s="12"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="X224" s="12"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="X225" s="12"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="X226" s="12"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="X227" s="12"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="X228" s="12"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="X229" s="12"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="X230" s="12"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="X231" s="12"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="X232" s="12"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="X233" s="12"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="X234" s="12"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="X235" s="12"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="X236" s="12"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="X237" s="12"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="X238" s="12"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="X239" s="12"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="X240" s="12"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="X241" s="12"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="X242" s="12"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="X243" s="12"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="X244" s="12"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="X245" s="12"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="X246" s="12"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="X247" s="12"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="X248" s="12"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="X249" s="12"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="X250" s="12"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="X251" s="12"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="X252" s="12"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+      <c r="X52" s="4"/>
+    </row>
+    <row r="53" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X54" s="4"/>
+    </row>
+    <row r="55" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X55" s="4"/>
+    </row>
+    <row r="56" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X56" s="4"/>
+    </row>
+    <row r="57" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X57" s="4"/>
+    </row>
+    <row r="58" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X58" s="4"/>
+    </row>
+    <row r="59" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X59" s="4"/>
+    </row>
+    <row r="60" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X60" s="4"/>
+    </row>
+    <row r="61" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X61" s="4"/>
+    </row>
+    <row r="62" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X62" s="4"/>
+    </row>
+    <row r="63" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X63" s="4"/>
+    </row>
+    <row r="64" spans="4:24" ht="15.75" customHeight="1">
+      <c r="X64" s="4"/>
+    </row>
+    <row r="65" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X65" s="4"/>
+    </row>
+    <row r="66" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X66" s="4"/>
+    </row>
+    <row r="67" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X68" s="4"/>
+    </row>
+    <row r="69" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X75" s="4"/>
+    </row>
+    <row r="76" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X76" s="4"/>
+    </row>
+    <row r="77" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X77" s="4"/>
+    </row>
+    <row r="78" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X80" s="4"/>
+    </row>
+    <row r="81" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X81" s="4"/>
+    </row>
+    <row r="82" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X83" s="4"/>
+    </row>
+    <row r="84" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X84" s="4"/>
+    </row>
+    <row r="85" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X85" s="4"/>
+    </row>
+    <row r="86" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X86" s="4"/>
+    </row>
+    <row r="87" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X87" s="4"/>
+    </row>
+    <row r="88" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X89" s="4"/>
+    </row>
+    <row r="90" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X90" s="4"/>
+    </row>
+    <row r="91" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X92" s="4"/>
+    </row>
+    <row r="93" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X94" s="4"/>
+    </row>
+    <row r="95" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X95" s="4"/>
+    </row>
+    <row r="96" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X96" s="4"/>
+    </row>
+    <row r="97" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X97" s="4"/>
+    </row>
+    <row r="98" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X98" s="4"/>
+    </row>
+    <row r="99" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X99" s="4"/>
+    </row>
+    <row r="100" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X100" s="4"/>
+    </row>
+    <row r="101" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X101" s="4"/>
+    </row>
+    <row r="102" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X102" s="4"/>
+    </row>
+    <row r="103" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X103" s="4"/>
+    </row>
+    <row r="104" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X104" s="4"/>
+    </row>
+    <row r="105" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X105" s="4"/>
+    </row>
+    <row r="106" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X106" s="4"/>
+    </row>
+    <row r="107" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X107" s="4"/>
+    </row>
+    <row r="108" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X108" s="4"/>
+    </row>
+    <row r="109" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X109" s="4"/>
+    </row>
+    <row r="110" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X110" s="4"/>
+    </row>
+    <row r="111" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X111" s="4"/>
+    </row>
+    <row r="112" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X112" s="4"/>
+    </row>
+    <row r="113" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X113" s="4"/>
+    </row>
+    <row r="114" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X114" s="4"/>
+    </row>
+    <row r="115" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X115" s="4"/>
+    </row>
+    <row r="116" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X116" s="4"/>
+    </row>
+    <row r="117" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X117" s="4"/>
+    </row>
+    <row r="118" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X118" s="4"/>
+    </row>
+    <row r="119" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X119" s="4"/>
+    </row>
+    <row r="120" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X120" s="4"/>
+    </row>
+    <row r="121" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X121" s="4"/>
+    </row>
+    <row r="122" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X122" s="4"/>
+    </row>
+    <row r="123" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X123" s="4"/>
+    </row>
+    <row r="124" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X124" s="4"/>
+    </row>
+    <row r="125" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X125" s="4"/>
+    </row>
+    <row r="126" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X126" s="4"/>
+    </row>
+    <row r="127" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X127" s="4"/>
+    </row>
+    <row r="128" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X128" s="4"/>
+    </row>
+    <row r="129" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X129" s="4"/>
+    </row>
+    <row r="130" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X130" s="4"/>
+    </row>
+    <row r="131" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X131" s="4"/>
+    </row>
+    <row r="132" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X132" s="4"/>
+    </row>
+    <row r="133" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X133" s="4"/>
+    </row>
+    <row r="134" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X134" s="4"/>
+    </row>
+    <row r="135" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X135" s="4"/>
+    </row>
+    <row r="136" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X136" s="4"/>
+    </row>
+    <row r="137" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X137" s="4"/>
+    </row>
+    <row r="138" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X138" s="4"/>
+    </row>
+    <row r="139" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X139" s="4"/>
+    </row>
+    <row r="140" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X140" s="4"/>
+    </row>
+    <row r="141" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X141" s="4"/>
+    </row>
+    <row r="142" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X142" s="4"/>
+    </row>
+    <row r="143" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X143" s="4"/>
+    </row>
+    <row r="144" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X144" s="4"/>
+    </row>
+    <row r="145" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X145" s="4"/>
+    </row>
+    <row r="146" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X146" s="4"/>
+    </row>
+    <row r="147" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X147" s="4"/>
+    </row>
+    <row r="148" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X148" s="4"/>
+    </row>
+    <row r="149" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X149" s="4"/>
+    </row>
+    <row r="150" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X150" s="4"/>
+    </row>
+    <row r="151" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X151" s="4"/>
+    </row>
+    <row r="152" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X152" s="4"/>
+    </row>
+    <row r="153" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X153" s="4"/>
+    </row>
+    <row r="154" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X154" s="4"/>
+    </row>
+    <row r="155" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X155" s="4"/>
+    </row>
+    <row r="156" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X156" s="4"/>
+    </row>
+    <row r="157" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X157" s="4"/>
+    </row>
+    <row r="158" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X158" s="4"/>
+    </row>
+    <row r="159" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X159" s="4"/>
+    </row>
+    <row r="160" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X160" s="4"/>
+    </row>
+    <row r="161" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X161" s="4"/>
+    </row>
+    <row r="162" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X162" s="4"/>
+    </row>
+    <row r="163" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X163" s="4"/>
+    </row>
+    <row r="164" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X164" s="4"/>
+    </row>
+    <row r="165" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X165" s="4"/>
+    </row>
+    <row r="166" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X166" s="4"/>
+    </row>
+    <row r="167" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X167" s="4"/>
+    </row>
+    <row r="168" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X168" s="4"/>
+    </row>
+    <row r="169" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X169" s="4"/>
+    </row>
+    <row r="170" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X170" s="4"/>
+    </row>
+    <row r="171" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X171" s="4"/>
+    </row>
+    <row r="172" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X172" s="4"/>
+    </row>
+    <row r="173" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X173" s="4"/>
+    </row>
+    <row r="174" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X174" s="4"/>
+    </row>
+    <row r="175" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X175" s="4"/>
+    </row>
+    <row r="176" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X176" s="4"/>
+    </row>
+    <row r="177" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X177" s="4"/>
+    </row>
+    <row r="178" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X178" s="4"/>
+    </row>
+    <row r="179" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X179" s="4"/>
+    </row>
+    <row r="180" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X180" s="4"/>
+    </row>
+    <row r="181" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X181" s="4"/>
+    </row>
+    <row r="182" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X182" s="4"/>
+    </row>
+    <row r="183" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X183" s="4"/>
+    </row>
+    <row r="184" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X184" s="4"/>
+    </row>
+    <row r="185" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X185" s="4"/>
+    </row>
+    <row r="186" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X186" s="4"/>
+    </row>
+    <row r="187" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X187" s="4"/>
+    </row>
+    <row r="188" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X188" s="4"/>
+    </row>
+    <row r="189" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X189" s="4"/>
+    </row>
+    <row r="190" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X190" s="4"/>
+    </row>
+    <row r="191" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X191" s="4"/>
+    </row>
+    <row r="192" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X192" s="4"/>
+    </row>
+    <row r="193" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X193" s="4"/>
+    </row>
+    <row r="194" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X194" s="4"/>
+    </row>
+    <row r="195" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X195" s="4"/>
+    </row>
+    <row r="196" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X196" s="4"/>
+    </row>
+    <row r="197" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X197" s="4"/>
+    </row>
+    <row r="198" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X198" s="4"/>
+    </row>
+    <row r="199" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X199" s="4"/>
+    </row>
+    <row r="200" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X200" s="4"/>
+    </row>
+    <row r="201" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X201" s="4"/>
+    </row>
+    <row r="202" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X202" s="4"/>
+    </row>
+    <row r="203" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X203" s="4"/>
+    </row>
+    <row r="204" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X204" s="4"/>
+    </row>
+    <row r="205" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X205" s="4"/>
+    </row>
+    <row r="206" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X206" s="4"/>
+    </row>
+    <row r="207" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X207" s="4"/>
+    </row>
+    <row r="208" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X208" s="4"/>
+    </row>
+    <row r="209" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X209" s="4"/>
+    </row>
+    <row r="210" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X210" s="4"/>
+    </row>
+    <row r="211" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X211" s="4"/>
+    </row>
+    <row r="212" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X212" s="4"/>
+    </row>
+    <row r="213" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X213" s="4"/>
+    </row>
+    <row r="214" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X214" s="4"/>
+    </row>
+    <row r="215" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X215" s="4"/>
+    </row>
+    <row r="216" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X216" s="4"/>
+    </row>
+    <row r="217" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X217" s="4"/>
+    </row>
+    <row r="218" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X218" s="4"/>
+    </row>
+    <row r="219" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X219" s="4"/>
+    </row>
+    <row r="220" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X220" s="4"/>
+    </row>
+    <row r="221" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X221" s="4"/>
+    </row>
+    <row r="222" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X222" s="4"/>
+    </row>
+    <row r="223" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X223" s="4"/>
+    </row>
+    <row r="224" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X224" s="4"/>
+    </row>
+    <row r="225" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X225" s="4"/>
+    </row>
+    <row r="226" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X226" s="4"/>
+    </row>
+    <row r="227" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X227" s="4"/>
+    </row>
+    <row r="228" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X228" s="4"/>
+    </row>
+    <row r="229" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X229" s="4"/>
+    </row>
+    <row r="230" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X230" s="4"/>
+    </row>
+    <row r="231" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X231" s="4"/>
+    </row>
+    <row r="232" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X232" s="4"/>
+    </row>
+    <row r="233" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X233" s="4"/>
+    </row>
+    <row r="234" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X234" s="4"/>
+    </row>
+    <row r="235" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X235" s="4"/>
+    </row>
+    <row r="236" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X236" s="4"/>
+    </row>
+    <row r="237" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X237" s="4"/>
+    </row>
+    <row r="238" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X238" s="4"/>
+    </row>
+    <row r="239" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X239" s="4"/>
+    </row>
+    <row r="240" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X240" s="4"/>
+    </row>
+    <row r="241" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X241" s="4"/>
+    </row>
+    <row r="242" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X242" s="4"/>
+    </row>
+    <row r="243" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X243" s="4"/>
+    </row>
+    <row r="244" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X244" s="4"/>
+    </row>
+    <row r="245" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X245" s="4"/>
+    </row>
+    <row r="246" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X246" s="4"/>
+    </row>
+    <row r="247" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X247" s="4"/>
+    </row>
+    <row r="248" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X248" s="4"/>
+    </row>
+    <row r="249" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X249" s="4"/>
+    </row>
+    <row r="250" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X250" s="4"/>
+    </row>
+    <row r="251" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X251" s="4"/>
+    </row>
+    <row r="252" spans="24:24" ht="15.75" customHeight="1">
+      <c r="X252" s="4"/>
+    </row>
+    <row r="253" spans="24:24" ht="15.75" customHeight="1"/>
+    <row r="254" spans="24:24" ht="15.75" customHeight="1"/>
+    <row r="255" spans="24:24" ht="15.75" customHeight="1"/>
+    <row r="256" spans="24:24" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -5088,19 +5117,19 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>